--- a/data/xlsx_structure.xlsx
+++ b/data/xlsx_structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Dossiers personnels\Python\Opensea\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3488EFD-09B3-4A3D-B050-CA7EFC087019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DB974-94F5-4DA8-BB8E-384EF3155795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C0077194-8054-4665-AC8F-2CBB8D735F36}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Path</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t xml:space="preserve"> [["Dog", "Male"],  ["Cat", "Female"]]</t>
+  </si>
+  <si>
+    <t>Sale Type</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Specific Buyer</t>
+  </si>
+  <si>
+    <t>Timed Auction</t>
+  </si>
+  <si>
+    <t>["Sell with declining price", 0.0005]</t>
+  </si>
+  <si>
+    <t>["30-10-2021 18:30", "30-04-2022 18:30"] or ["3 days"];</t>
+  </si>
+  <si>
+    <t>[True, "0xDD135d5be0a23f6daAAE7D2d0580828c9e09402E"];</t>
   </si>
 </sst>
 </file>
@@ -151,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,18 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584203F6-4F15-4067-9AEB-1DD520A209FA}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="17" width="15.7109375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,8 +556,23 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,6 +608,21 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx_structure.xlsx
+++ b/data/xlsx_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DB974-94F5-4DA8-BB8E-384EF3155795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E61479-F7DA-49E9-BB03-DBAF738DAFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C0077194-8054-4665-AC8F-2CBB8D735F36}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>File Path</t>
   </si>
@@ -130,13 +130,16 @@
   </si>
   <si>
     <t>[True, "0xDD135d5be0a23f6daAAE7D2d0580828c9e09402E"];</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +150,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584203F6-4F15-4067-9AEB-1DD520A209FA}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +532,7 @@
     <col min="18" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,8 +584,11 @@
       <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="R1" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -623,6 +639,9 @@
       </c>
       <c r="Q2" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="R2" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
